--- a/Data/WC_Data/classified_keywords.xlsx
+++ b/Data/WC_Data/classified_keywords.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>

--- a/Data/WC_Data/classified_keywords.xlsx
+++ b/Data/WC_Data/classified_keywords.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>参数学习</t>
+          <t>接触感知</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -461,29 +461,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>参数 学习</t>
+          <t>接触 感知</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>社会机器人</t>
+          <t>机器人确定性表达</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>社会 机器人</t>
+          <t>机器人 确定性 表达</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>控制</t>
+          <t>生成</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -491,44 +491,44 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>控制</t>
+          <t>生成</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>运动规划</t>
+          <t>GPU加速</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>运动 规划</t>
+          <t>GPU 加速</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>运动规划</t>
+          <t>快速收敛</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>运动 规划</t>
+          <t>快速 收敛</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>适应</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -536,224 +536,224 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>适应</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>机器人操作</t>
+          <t>多形态智能规范数据</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>机器人 操作</t>
+          <t>形态 智能 规范 数据</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>社会导航</t>
+          <t>生成</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>社会 导航</t>
+          <t>生成</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>机器人控制</t>
+          <t>未来提示</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>机器人 控制</t>
+          <t>未来 提示</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>姿态跟踪</t>
+          <t>统一触觉表示</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>姿态 跟踪</t>
+          <t>统一 触觉 表示</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>系统辨识</t>
+          <t>安全保证</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>系统 辨识</t>
+          <t>安全 保证</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>人形机器人</t>
+          <t>delta动作模型</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>人形 机器人</t>
+          <t>delta 动作 模型</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>家具组装</t>
+          <t>分层组装图</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>家具 组装</t>
+          <t>分层 组装</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>非抓取操作</t>
+          <t>模块化架构</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>抓取 操作</t>
+          <t>模块化 架构</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>机器人模拟</t>
+          <t>异构模拟</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>机器人 模拟</t>
+          <t>异构 模拟</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>可达性分析</t>
+          <t>深度学习</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>可达性 分析</t>
+          <t>深度 学习</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>混合动力系统</t>
+          <t>无轨迹分割</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>混合 动力系统</t>
+          <t>轨迹 分割</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>点云配准</t>
+          <t>视觉基础模型</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>点云 配准</t>
+          <t>视觉 基础 模型</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>碰撞避免</t>
+          <t>边缘计算</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>碰撞 避免</t>
+          <t>边缘 计算</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>混合</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>机器人学习</t>
+          <t>在线经验</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -761,29 +761,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>机器人 学习</t>
+          <t>在线 经验</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>扩散策略</t>
+          <t>低秩结构</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>扩散 策略</t>
+          <t>结构</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>机器人学习</t>
+          <t>力感知</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -791,14 +791,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>机器人 学习</t>
+          <t>感知</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>机器人学习</t>
+          <t>超线性扩展</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -806,224 +806,224 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>机器人 学习</t>
+          <t>线性 扩展</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>多智能体神经网络隐式映射</t>
+          <t>异步通信</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>智能 神经网络 隐式 映射</t>
+          <t>异步 通信</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>预测</t>
+          <t>多未来</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>预测</t>
+          <t>未来</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>视频动作</t>
+          <t>联合</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>视频 动作</t>
+          <t>联合</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>蒸馏</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>蒸馏</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>机器人算法性能</t>
+          <t>多模态传感器载荷</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>机器人 算法 性能</t>
+          <t>模态 传感器 载荷</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>水下洞穴</t>
+          <t>自主水下机器人</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>水下 洞穴</t>
+          <t>自主 水下 机器人</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>安全导航</t>
+          <t>可验证的正确性</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>安全 导航</t>
+          <t>可验证 正确性</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>仿真平台</t>
+          <t>动态场景</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>仿真 平台</t>
+          <t>动态 场景</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>VLA</t>
+          <t>强化微调</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>VLA</t>
+          <t>强化 微调</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>安全过滤器</t>
+          <t>无模型控制屏障函数</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>安全 过滤器</t>
+          <t>模型 控制 屏障 函数</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>控制器比较</t>
+          <t>公平比较</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>控制器 比较</t>
+          <t>公平 比较</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>机器人操作</t>
+          <t>可解释性</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>机器人 操作</t>
+          <t>解释性</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>力反馈</t>
+          <t>开源</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>力反馈</t>
+          <t>开源</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>多机器人</t>
+          <t>概率度量</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>概率 度量</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>机器人持续学习</t>
+          <t>动作映射</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1031,569 +1031,569 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>机器人 持续 学习</t>
+          <t>动作 映射</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>肌腱控制</t>
+          <t>肌腱控制信号</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>肌腱 控制</t>
+          <t>肌腱 控制 信号</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>模拟到现实</t>
+          <t>高吞吐量批渲染</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>模拟 现实</t>
+          <t>吞吐量 渲染</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>机器人装配</t>
+          <t>事件相机</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>机器人 装配</t>
+          <t>事件 相机</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>人形机器人步态控制</t>
+          <t>步态频率网络</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>人形 机器人 步态 控制</t>
+          <t>步态 频率 网络</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>多视角</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>视角</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>无人机导航</t>
+          <t>高速度视觉导航</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>无人机 导航</t>
+          <t>高速度 视觉 导航</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>机器人操作</t>
+          <t>多模态融合</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>机器人 操作</t>
+          <t>模态 融合</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>机器人手</t>
+          <t>扩散策略</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>扩散 策略</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>多智能体安全最优控制</t>
+          <t>图控制屏障函数</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>智能 安全 最优控制</t>
+          <t>控制 屏障 函数</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>轨迹优化</t>
+          <t>矩阵李群</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>轨迹 优化</t>
+          <t>矩阵 李群</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>人形机器人</t>
+          <t>开源</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>人形 机器人</t>
+          <t>开源</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>多接触建模</t>
+          <t>优化</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>接触 建模</t>
+          <t>优化</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>机器人控制</t>
+          <t>流匹配</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>机器人 控制</t>
+          <t>匹配</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>移动操作</t>
+          <t>安全探索</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>移动 操作</t>
+          <t>安全 探索</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>机器人运动规划</t>
+          <t>高效采样</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>机器人 运动 规划</t>
+          <t>高效 采样</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>迭代</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>迭代</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>信息收集</t>
+          <t>主动信息收集</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>信息 收集</t>
+          <t>主动 信息 收集</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>摩擦</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>摩擦</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>失败检测</t>
+          <t>无失败数据</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>失败 检测</t>
+          <t>失败 数据</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>视觉-触觉策略学习</t>
+          <t>扩散策略</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>视觉 触觉 策略 学习</t>
+          <t>扩散 策略</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>机器人导航</t>
+          <t>混合训练策略</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>机器人 导航</t>
+          <t>混合 训练 策略</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>机器人脊柱</t>
+          <t>连续多关节</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>机器人 脊柱</t>
+          <t>连续 关节</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>触觉</t>
+          <t>检索</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>触觉</t>
+          <t>检索</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>非抓握操作</t>
+          <t>物理信息</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>抓握 操作</t>
+          <t>物理 信息</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>站立控制</t>
+          <t>多批评家</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>站立 控制</t>
+          <t>批评家</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>移动性</t>
+          <t>基准</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>移动性</t>
+          <t>基准</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IMU</t>
+          <t>连续偏差动力学</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>IMU</t>
+          <t>连续 偏差 动力学</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>轨迹跟踪</t>
+          <t>滑动窗口</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>轨迹 跟踪</t>
+          <t>滑动 窗口</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3D重建</t>
+          <t>全局最优</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3D 重建</t>
+          <t>全局 最优</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>机器人控制</t>
+          <t>自适应动作网格</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>机器人 控制</t>
+          <t>适应 动作 网格</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>路径规划</t>
+          <t>动态细化</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>路径 规划</t>
+          <t>动态 细化</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>多旋翼系统</t>
+          <t>动态下洗效应</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>旋翼 系统</t>
+          <t>动态 下洗 效应</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>接口</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>接口</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>惯性里程计</t>
+          <t>李事件</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>惯性 里程计</t>
+          <t>事件</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>机器人学习</t>
+          <t>草图生成</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>机器人 学习</t>
+          <t>草图 生成</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>护理教育</t>
+          <t>参与式设计</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>护理 教育</t>
+          <t>参与 设计</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>机器人操作</t>
+          <t>实时补偿</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>机器人 操作</t>
+          <t>实时 补偿</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>框架</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1601,74 +1601,74 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>框架</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>人机交互</t>
+          <t>多模态</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>人机交互</t>
+          <t>模态</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>变形物体</t>
+          <t>隐式表示</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>变形 物体</t>
+          <t>隐式 表示</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>多机器人系统</t>
+          <t>产品图</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>机器人 系统</t>
+          <t>产品</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>行为克隆</t>
+          <t>单步推理</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>行为 克隆</t>
+          <t>单步 推理</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>机器人学习</t>
+          <t>语言监督</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1676,149 +1676,149 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>机器人 学习</t>
+          <t>语言 监督</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>噪声协方差估计</t>
+          <t>联合估计</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>噪声 协方差 估计</t>
+          <t>联合 估计</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>机器人抓取</t>
+          <t>多模态预训练</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>机器人 抓取</t>
+          <t>模态 训练</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>机器人操作</t>
+          <t>部件级指令</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>机器人 操作</t>
+          <t>部件 指令</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>机器人学习</t>
+          <t>统一基准</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>机器人 学习</t>
+          <t>统一 基准</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>雷达测距</t>
+          <t>多普勒速度约束</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>雷达 测距</t>
+          <t>多普勒 速度 约束</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>动态操作</t>
+          <t>低成本</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>动态 操作</t>
+          <t>低成本</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>数据生成</t>
+          <t>物理一致性</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>数据 生成</t>
+          <t>物理 一致性</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>自适应</t>
+          <t>实时</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>适应</t>
+          <t>实时</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>近似导数</t>
+          <t>一致性</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>近似 导数</t>
+          <t>一致性</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>机器人学习</t>
+          <t>可解释性</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1826,44 +1826,44 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>机器人 学习</t>
+          <t>解释性</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>机器人遥操作</t>
+          <t>界面级意图推断</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>机器人 操作</t>
+          <t>界面 意图 推断</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>机器人协作</t>
+          <t>高保真规划</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>机器人 协作</t>
+          <t>高保真 规划</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>人形机器人</t>
+          <t>自适应</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1871,29 +1871,29 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>人形 机器人</t>
+          <t>适应</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>机器人政策</t>
+          <t>数据收集</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>机器人 政策</t>
+          <t>数据 收集</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>空中操作</t>
+          <t>框架</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>空中 操作</t>
+          <t>框架</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>动物学习</t>
+          <t>生物力学模型</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1916,14 +1916,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>动物 学习</t>
+          <t>生物力学 模型</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>强化学习</t>
+          <t>通用策略</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1931,119 +1931,119 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>强化 学习</t>
+          <t>通用 策略</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>稀疏落脚点</t>
+          <t>双阶段</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>稀疏 落脚点</t>
+          <t>阶段</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>数据质量</t>
+          <t>DemInf</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>数据 质量</t>
+          <t>DemInf</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>机器人控制</t>
+          <t>隐式对齐</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>机器人 控制</t>
+          <t>隐式 对齐</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>自主驾驶</t>
+          <t>边缘部署</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>自主 驾驶</t>
+          <t>边缘 部署</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>无监督</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>监督</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>机器人操作</t>
+          <t>数据增强</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>机器人 操作</t>
+          <t>数据 增强</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>物理</t>
+          <t>融合</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>物理</t>
+          <t>融合</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>交互式学习</t>
+          <t>成本最优</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2051,29 +2051,29 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>交互式 学习</t>
+          <t>成本 最优</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>不确定性统一</t>
+          <t>不确定性加权</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>不确定性 统一</t>
+          <t>不确定性 加权</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>机器人步态学习</t>
+          <t>奖励增益调节</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2081,134 +2081,134 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>机器人 步态 学习</t>
+          <t>奖励 增益 调节</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>四足机器人</t>
+          <t>跨形态学习</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>四足 机器人</t>
+          <t>形态 学习</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>机器人手</t>
+          <t>低成本</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>低成本</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>多机器人协作装配</t>
+          <t>异步执行框架</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>机器人 协作 装配</t>
+          <t>异步 执行 框架</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>对话机器人</t>
+          <t>实时处理</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>对话 机器人</t>
+          <t>实时处理</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>人机交互</t>
+          <t>框架</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>人机交互</t>
+          <t>框架</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>反馈</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>反馈</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>人机交互</t>
+          <t>虚拟现实</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>人机交互</t>
+          <t>虚拟现实</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>全局定位</t>
+          <t>重力方向先验</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>全局 定位</t>
+          <t>重力 方向 先验</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>机器人学习</t>
+          <t>视频与动作扩散耦合</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2216,59 +2216,59 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>机器人 学习</t>
+          <t>视频 动作 扩散 耦合</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ASD</t>
+          <t>observer model</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ASD</t>
+          <t>observer model</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>无线信号传播</t>
+          <t>稀疏数据</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>无线 信号 传播</t>
+          <t>稀疏 数据</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SLAM</t>
+          <t>多分辨率子图优化</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SLAM</t>
+          <t>分辨率 子图 优化</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>机器人学习</t>
+          <t>混合刚柔结构</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2276,44 +2276,44 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>机器人 学习</t>
+          <t>混合 刚柔 结构</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>情感控制</t>
+          <t>自建模</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>情感 控制</t>
+          <t>建模</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>个人化</t>
+          <t>多模态交互</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>个人化</t>
+          <t>模态 交互</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>机器人学习</t>
+          <t>模拟与真实数据结合</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2321,442 +2321,442 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>机器人 学习</t>
+          <t>模拟 真实 数据 结合</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>变形物体建模</t>
+          <t>粒子-网格混合表示</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>变形 物体 建模</t>
+          <t>粒子 网格 混合 表示</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>UAV-UGV协同路径规划</t>
+          <t>编码-解码转换器架构</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>UAV UGV 协同 路径 规划</t>
+          <t>编码 解码 转换器 架构</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3D重建</t>
+          <t>不确定性量化</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>3D 重建</t>
+          <t>不确定性 量化</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>灵巧操作</t>
+          <t>对应关系</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>灵巧 操作</t>
+          <t>对应 关系</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>灵巧操作</t>
+          <t>基础控制器</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>灵巧 操作</t>
+          <t>基础 控制器</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>语义关键点</t>
+          <t>语义关键点抽象</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>语义 关键点</t>
+          <t>语义 关键点 抽象</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>安全控制</t>
+          <t>潜在安全过滤器</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>安全控制</t>
+          <t>潜在 安全 过滤器</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>扫描匹配</t>
+          <t>非迭代</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>扫描 匹配</t>
+          <t>迭代</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>机器人操作</t>
+          <t>大规模模拟</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>机器人 操作</t>
+          <t>大规模 模拟</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>双臂机器人操作</t>
+          <t>单次教学</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>双臂 机器人 操作</t>
+          <t>单次 教学</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>几何步态优化</t>
+          <t>变分步态优化</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>几何 步态 优化</t>
+          <t>变分 步态 优化</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>动态安全</t>
+          <t>安全滤波器</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>动态 安全</t>
+          <t>安全 滤波器</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>安全</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>抓取类型</t>
+          <t>高效抓取合成</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>抓取 类型</t>
+          <t>高效 抓取 合成</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>移动操作</t>
+          <t>零样本部署</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>移动 操作</t>
+          <t>样本 部署</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>接触丰富规划</t>
+          <t>稀疏性利用</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>接触 丰富 规划</t>
+          <t>稀疏 利用</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>异构外骨骼</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>异构 外骨骼</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>人形机器人</t>
+          <t>统一命令空间</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>人形 机器人</t>
+          <t>统一 命令 空间</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>覆盖</t>
+          <t>流匹配</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>覆盖</t>
+          <t>匹配</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>两阶段</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>机器人</t>
+          <t>阶段</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>地图导航</t>
+          <t>反事实推理</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>地图 导航</t>
+          <t>事实 推理</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>数据高效</t>
+          <t>完全合成</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>数据 高效</t>
+          <t>完全 合成</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>机器人控制</t>
+          <t>任务中心</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>机器人 控制</t>
+          <t>任务 中心</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>导航</t>
+          <t>两阶段框架</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>导航</t>
+          <t>阶段 框架</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>运动规划</t>
+          <t>鲁棒性</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>运动 规划</t>
+          <t>鲁棒性</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>轨迹预测</t>
+          <t>不确定性感知</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>轨迹 预测</t>
+          <t>不确定性 感知</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>语义映射</t>
+          <t>校准</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>语义 映射</t>
+          <t>校准</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>机器人轨迹</t>
+          <t>动态可行性</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>机器人 轨迹</t>
+          <t>动态 可行性</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>任务与运动规划</t>
+          <t>GPU并行化</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>任务 运动 规划</t>
+          <t>GPU 并行</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>多智能体强化学习</t>
+          <t>冲突约束</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2786,14 +2786,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>智能 强化 学习</t>
+          <t>冲突 约束</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>模仿学习</t>
+          <t>近最优停止</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>模仿 学习</t>
+          <t>最优 停止</t>
         </is>
       </c>
     </row>
